--- a/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
+++ b/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
@@ -451,967 +451,1307 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2836</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3433</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1956</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8659</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8659</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6752</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4577</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4567</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>006648</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>汇安多因子混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>94.68</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.72</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4175</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3608</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>006649</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>汇安多因子混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>94.68</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2.72</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>660003</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>农银平衡双利混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>78.60</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>660006</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>660004</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>农银策略价值混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>960033</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>农银消费主题混合H</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>340007</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>兴全社会责任混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009564</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇安消费龙头混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009565</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇安消费龙头混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>164401</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源中证健康产业指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>660012</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>农银消费主题混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003634</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实农业产业股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>90.61</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009875</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>天弘甄选食品饮料股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009876</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>天弘甄选食品饮料股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>540009</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇丰晋信消费红利股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>85.96</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>040007</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华安中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>89.88</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>420001</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>天弘精选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>80.53</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>660005</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>农银中小盘混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>89.24</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>660006</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>农银大盘蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>160211</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国泰中小盘成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001030</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>天弘云端生活优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>91.85</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>660001</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>农银行业成长混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>93.42</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>310358</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>申万菱信新经济混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>83.73</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001532</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华安文体健康主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001940</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002770</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>安信新回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>78.48</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002771</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>安信新回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>78.48</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003889</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>汇安丰泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>90.73</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003890</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>汇安丰泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>90.73</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005290</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005492</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>农银汇理研究驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009710</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>010033</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>安信成长精选混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>010034</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>安信成长精选混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1421,7 +1761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,15 +1782,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003594</t>
+          <t>001511</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛盛崇灵活配置混合A</t>
+          <t>兴全新视野灵活配置定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.78</t>
+          <t>265.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2405</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003595</t>
+          <t>340007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长盛盛崇灵活配置混合C</t>
+          <t>兴全社会责任混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35.78</t>
+          <t>63.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4384</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003889</t>
+          <t>009556</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇安丰泽灵活配置混合A</t>
+          <t>兴全合丰三年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>82.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2477</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003890</t>
+          <t>010488</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安丰泽灵活配置混合C</t>
+          <t>鹏华优选成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>54.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>39.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9735</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005290</t>
+          <t>009564</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合A</t>
+          <t>汇安消费龙头混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>13.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7162</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009710</t>
+          <t>660001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合C</t>
+          <t>农银行业成长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>18.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>67.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6079</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>660003</t>
+          <t>660012</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>农银平衡双利混合</t>
+          <t>农银消费主题混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>55.15</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5449</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005492</t>
+          <t>009347</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>农银汇理研究驱动灵活配置混合</t>
+          <t>中融价值成长6个月持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>61.98</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4285</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>660004</t>
+          <t>310358</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>农银策略价值混合</t>
+          <t>申万菱信新经济混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>67.87</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4110</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1714,25 +2154,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>080008</t>
+          <t>006648</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长盛战略新兴产业灵活配置混合A</t>
+          <t>汇安多因子混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>37.60</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001834</t>
+          <t>010033</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长盛战略新兴产业灵活配置混合C</t>
+          <t>安信成长精选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>37.60</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2844</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009347</t>
+          <t>660005</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中融价值成长6个月持有期混合A</t>
+          <t>农银中小盘混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>61.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009348</t>
+          <t>290004</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中融价值成长6个月持有期混合C</t>
+          <t>泰信优质生活混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009350</t>
+          <t>006314</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>新疆前海联合添泽债券C</t>
+          <t>中融策略优选混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009875</t>
+          <t>006430</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天弘甄选食品饮料股票A</t>
+          <t>凯石澜龙头经济定期开放混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009876</t>
+          <t>420001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天弘甄选食品饮料股票C</t>
+          <t>天弘精选混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006235</t>
+          <t>398061</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东方城镇消费主题混合</t>
+          <t>中海消费混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010033</t>
+          <t>008424</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>安信成长精选混合A</t>
+          <t>中融品牌优选混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>84.56</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010034</t>
+          <t>009875</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>安信成长精选混合C</t>
+          <t>天弘甄选食品饮料股票A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>84.56</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006314</t>
+          <t>660004</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中融策略优选混合A</t>
+          <t>农银策略价值混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006315</t>
+          <t>540009</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中融策略优选混合C</t>
+          <t>汇丰晋信消费红利股票</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>290004</t>
+          <t>006649</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>泰信优质生活混合</t>
+          <t>汇安多因子混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>87.44</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>310358</t>
+          <t>001030</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>申万菱信新经济混合</t>
+          <t>天弘云端生活优选灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>000649</t>
+          <t>660003</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>长城久鑫灵活配置混合</t>
+          <t>农银平衡双利混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>55.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006430</t>
+          <t>003889</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>凯石澜龙头经济定期开放混合</t>
+          <t>汇安丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>73.74</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>340007</t>
+          <t>009876</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>兴全社会责任混合</t>
+          <t>天弘甄选食品饮料股票C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>398061</t>
+          <t>005492</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中海消费混合</t>
+          <t>农银汇理研究驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>61.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>006648</t>
+          <t>001940</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>汇安多因子混合A</t>
+          <t>农银汇理现代农业加灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>006649</t>
+          <t>164401</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>汇安多因子混合C</t>
+          <t>前海开源中证健康产业指数</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>420001</t>
+          <t>003594</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天弘精选混合</t>
+          <t>长盛盛崇灵活配置混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>72.54</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001030</t>
+          <t>080008</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天弘云端生活优选灵活配置混合</t>
+          <t>长盛战略新兴产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>8</v>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>010488</t>
+          <t>001834</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鹏华优选成长混合A</t>
+          <t>长盛战略新兴产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>39.55</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>9</v>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>010489</t>
+          <t>009348</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鹏华优选成长混合C</t>
+          <t>中融价值成长6个月持有期混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>39.55</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>9</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>001296</t>
+          <t>003145</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>长城转型成长灵活配置混合</t>
+          <t>中融竞争优势股票</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>001511</t>
+          <t>570006</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>兴全新视野灵活配置定期开放混合</t>
+          <t>诺德中小盘混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>64.06</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>10</v>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>001569</t>
+          <t>010489</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>泰信国策驱动灵活配置混合</t>
+          <t>鹏华优选成长混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>75.77</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>10</v>
+          <t>39.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>001940</t>
+          <t>001296</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
+          <t>长城转型成长灵活配置混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>76.81</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>6</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>540009</t>
+          <t>001569</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>汇丰晋信消费红利股票</t>
+          <t>泰信国策驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>7</v>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2526,25 +3256,35 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>570006</t>
+          <t>006315</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>诺德中小盘混合</t>
+          <t>中融策略优选混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>660001</t>
+          <t>010034</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>农银行业成长混合A</t>
+          <t>安信成长精选混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>67.85</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>3</v>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -2582,25 +3332,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>660005</t>
+          <t>009565</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>农银中小盘混合</t>
+          <t>汇安消费龙头混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>61.51</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>660012</t>
+          <t>000649</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>农银消费主题混合A</t>
+          <t>长城久鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>85.88</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>4</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -2638,26 +3408,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>960033</t>
+          <t>003890</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>农银消费主题混合H</t>
+          <t>汇安丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>85.88</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>4</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -2666,26 +3446,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>162211</t>
+          <t>003595</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>泰达宏利品质生活混合</t>
+          <t>长盛盛崇灵活配置混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>79.69</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>10</v>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -2694,26 +3484,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>003145</t>
+          <t>006235</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中融竞争优势股票</t>
+          <t>东方城镇消费主题混合</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2722,26 +3522,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>008424</t>
+          <t>162211</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中融品牌优选混合A</t>
+          <t>泰达宏利品质生活混合</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -2760,15 +3570,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>93.52</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>5.57</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2778,26 +3598,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>164401</t>
+          <t>005290</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>前海开源中证健康产业指数</t>
+          <t>诺德新盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -2806,26 +3636,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>009556</t>
+          <t>162413</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>兴全合丰三年持有期混合</t>
+          <t>华宝中证1000指数</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>88.81</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>9</v>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2834,26 +3674,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>162413</t>
+          <t>009710</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华宝中证1000指数</t>
+          <t>诺德新盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>10</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -2862,25 +3712,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>009564</t>
+          <t>009350</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>汇安消费龙头混合A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
+          <t>新疆前海联合添泽债券C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2890,26 +3744,30 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>009565</t>
+          <t>960033</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>汇安消费龙头混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>3</v>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
+++ b/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3720,7 +3721,6 @@
           <t>新疆前海联合添泽债券C</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>89.39</t>
@@ -3752,7 +3752,6 @@
           <t>农银消费主题混合H</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>85.88</t>
@@ -3768,6 +3767,1884 @@
       </c>
       <c r="H53" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>384.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.0658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>221.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.5022</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1887</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1849</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>54.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6475</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6687</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6523</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5220</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4451</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3404</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>62.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>66.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>59.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>48.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004274</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004275</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>48.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
+++ b/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5650,4 +5651,1122 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>333.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.3608</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>189.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9642</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0018</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4969</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3313</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3141</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2622</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
+++ b/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6769,4 +6770,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
+++ b/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6778,7 +6779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6789,17 +6790,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6809,14 +6830,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.94</v>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6193</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6825,14 +6868,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>48</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33.47</v>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6841,14 +6906,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>52</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.23</v>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3423</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -6857,13 +6944,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>33</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>14.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
+++ b/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7633,7 +7634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7644,17 +7645,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7664,14 +7685,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.67</v>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -7680,14 +7723,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.94</v>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -7696,14 +7761,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>48</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.47</v>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7712,14 +7799,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D5" t="n">
-        <v>22.23</v>
+        <v>33.47</v>
       </c>
     </row>
     <row r="6">
@@ -7728,13 +7937,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>52</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>33</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>14.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
+++ b/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7842,7 +7843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7853,17 +7854,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7873,14 +7894,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5485</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -7889,14 +7932,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.67</v>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -7905,14 +7970,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.94</v>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4212</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -7921,14 +8008,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>48</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33.47</v>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -7937,14 +8046,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>52</v>
-      </c>
-      <c r="D6" t="n">
-        <v>22.23</v>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -7953,13 +8084,1285 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013867</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013868</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012289</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>61.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012288</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>61.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014382</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>48</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>52</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>33</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>14.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
+++ b/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>3.57</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>5.67</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>21.94</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>33.47</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" t="n">
-        <v>22.23</v>
+        <v>33.47</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>52</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>33</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>14.33</v>
       </c>
     </row>
@@ -600,6 +617,856 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5451</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2690</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银景福回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>45.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015089</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银景福回报混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>016520</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1985,7 +2852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2193,7 +3060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3047,7 +3914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4165,7 +5032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6043,7 +6910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8061,7 +8928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
+++ b/数据整理/stocks/A股/上证主板/600882-妙可蓝多.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.37</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>3.57</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>0.38</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>5.67</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>21.94</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>33.47</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" t="n">
-        <v>22.23</v>
+        <v>33.47</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1340 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>52</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>33</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>14.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2836</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3433</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1956</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8659</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8659</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6752</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4577</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4567</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4175</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3608</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>660006</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1944,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2496</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016520</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1466,7 +3037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2852,7 +4423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3060,7 +4631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3914,7 +5485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5032,7 +6603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6910,7 +8481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8926,1314 +10497,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>340007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全社会责任混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>72.85</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.2836</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003634</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实农业产业股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>28.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3433</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>660001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>农银行业成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1956</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009564</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇安消费龙头混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>24.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.0264</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>960033</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>农银消费主题混合H</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.79</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8659</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>660012</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>农银消费主题混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.79</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8659</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>040007</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华安中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.88</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6752</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160211</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰中小盘成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4577</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002770</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信新回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>78.48</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4567</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006648</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇安多因子混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>15.35</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4175</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>310358</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>申万菱信新经济混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>11.24</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.73</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3608</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>420001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>天弘精选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.36</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>80.53</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3276</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>660005</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>农银中小盘混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10.01</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.24</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2853</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010033</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>安信成长精选混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>13.83</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2849</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002771</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>安信新回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>78.48</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1535</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001030</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>天弘云端生活优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.85</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1471</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>660004</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>农银策略价值混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1461</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009875</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>天弘甄选食品饮料股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1437</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>660003</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>农银平衡双利混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>78.60</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1220</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006649</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>汇安多因子混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1047</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>540009</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>汇丰晋信消费红利股票</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>85.96</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1010</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005492</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>农银汇理研究驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0981</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001940</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0885</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>003889</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>汇安丰泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>90.73</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0833</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009876</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>天弘甄选食品饮料股票C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0829</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>164401</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>前海开源中证健康产业指数</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0706</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001532</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华安文体健康主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0496</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>660006</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>农银大盘蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0445</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009565</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>汇安消费龙头混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>010034</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>安信成长精选混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003890</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>汇安丰泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>90.73</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005290</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>009710</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>